--- a/feature/testBR/ig/StructureDefinition-sas-sos-appointment.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-sos-appointment.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-31T13:30:27+00:00</t>
+    <t>2025-01-31T15:48:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-sos-appointment.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-sos-appointment.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-31T15:48:31+00:00</t>
+    <t>2025-01-31T16:36:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-sos-appointment.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-sos-appointment.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-31T16:36:09+00:00</t>
+    <t>2025-01-31T16:52:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-sos-appointment.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-sos-appointment.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-31T16:52:44+00:00</t>
+    <t>2025-02-03T13:34:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-sos-appointment.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-sos-appointment.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-03T13:34:22+00:00</t>
+    <t>2025-02-03T13:56:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-sos-appointment.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-sos-appointment.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-03T13:56:30+00:00</t>
+    <t>2025-02-03T16:39:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-sos-appointment.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-sos-appointment.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-03T16:39:55+00:00</t>
+    <t>2025-02-03T16:55:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-sos-appointment.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-sos-appointment.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-03T16:55:26+00:00</t>
+    <t>2025-02-04T08:34:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-sos-appointment.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-sos-appointment.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T08:34:23+00:00</t>
+    <t>2025-02-04T08:52:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-sos-appointment.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-sos-appointment.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T08:52:18+00:00</t>
+    <t>2025-02-04T09:36:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-sos-appointment.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-sos-appointment.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3269" uniqueCount="599">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3307" uniqueCount="601">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T09:36:46+00:00</t>
+    <t>2025-02-04T10:02:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -463,6 +463,12 @@
   </si>
   <si>
     <t>fr-canonical</t>
+  </si>
+  <si>
+    <t>Appointment.meta.profile:sas-sos-appointment</t>
+  </si>
+  <si>
+    <t>sas-sos-appointment</t>
   </si>
   <si>
     <t>Appointment.meta.security</t>
@@ -2175,7 +2181,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO88"/>
+  <dimension ref="A1:AO89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3522,9 +3528,11 @@
         <v>145</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>146</v>
+      </c>
       <c r="D12" t="s" s="2">
         <v>77</v>
       </c>
@@ -3533,7 +3541,7 @@
         <v>78</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>77</v>
@@ -3545,16 +3553,16 @@
         <v>89</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3565,7 +3573,7 @@
         <v>77</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>77</v>
+        <v>3</v>
       </c>
       <c r="T12" t="s" s="2">
         <v>77</v>
@@ -3580,13 +3588,13 @@
         <v>77</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>150</v>
+        <v>77</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>151</v>
+        <v>77</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>152</v>
+        <v>77</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>77</v>
@@ -3604,7 +3612,7 @@
         <v>77</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>78</v>
@@ -3636,10 +3644,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3662,16 +3670,16 @@
         <v>89</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3697,13 +3705,13 @@
         <v>77</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>77</v>
@@ -3721,7 +3729,7 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>78</v>
@@ -3753,10 +3761,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3767,28 +3775,28 @@
         <v>78</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="J14" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3814,13 +3822,13 @@
         <v>77</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>77</v>
+        <v>160</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>77</v>
+        <v>161</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>77</v>
+        <v>162</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>77</v>
@@ -3838,13 +3846,13 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>77</v>
@@ -3870,10 +3878,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3890,22 +3898,22 @@
         <v>77</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>168</v>
+        <v>130</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3931,13 +3939,13 @@
         <v>77</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>172</v>
+        <v>77</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>173</v>
+        <v>77</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>174</v>
+        <v>77</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>77</v>
@@ -3955,7 +3963,7 @@
         <v>77</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>78</v>
@@ -3987,14 +3995,14 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>177</v>
+        <v>77</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -4013,16 +4021,16 @@
         <v>77</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -4048,13 +4056,13 @@
         <v>77</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>77</v>
+        <v>174</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>77</v>
+        <v>175</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>77</v>
+        <v>176</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>77</v>
@@ -4072,7 +4080,7 @@
         <v>77</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>78</v>
@@ -4090,7 +4098,7 @@
         <v>77</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>183</v>
+        <v>77</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>77</v>
@@ -4104,21 +4112,21 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>77</v>
@@ -4130,16 +4138,16 @@
         <v>77</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -4189,25 +4197,25 @@
         <v>77</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>77</v>
@@ -4221,21 +4229,21 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>77</v>
+        <v>187</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>77</v>
@@ -4247,15 +4255,17 @@
         <v>77</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>109</v>
+        <v>188</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="N18" s="2"/>
+        <v>190</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>191</v>
+      </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>77</v>
@@ -4292,17 +4302,19 @@
         <v>77</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="AC18" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>78</v>
@@ -4314,13 +4326,13 @@
         <v>77</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>117</v>
+        <v>77</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>77</v>
+        <v>193</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>77</v>
@@ -4334,14 +4346,12 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="C19" t="s" s="2">
-        <v>197</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
         <v>77</v>
       </c>
@@ -4362,13 +4372,13 @@
         <v>77</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -4407,19 +4417,17 @@
         <v>77</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="AC19" s="2"/>
       <c r="AD19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>77</v>
+        <v>115</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -4428,7 +4436,7 @@
         <v>79</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>201</v>
+        <v>77</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>117</v>
@@ -4451,18 +4459,20 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="C20" s="2"/>
+        <v>194</v>
+      </c>
+      <c r="C20" t="s" s="2">
+        <v>199</v>
+      </c>
       <c r="D20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>88</v>
@@ -4477,13 +4487,13 @@
         <v>77</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>102</v>
+        <v>200</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>103</v>
+        <v>201</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>104</v>
+        <v>202</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4534,25 +4544,25 @@
         <v>77</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>105</v>
+        <v>197</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>77</v>
+        <v>203</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>77</v>
+        <v>117</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>77</v>
@@ -4580,7 +4590,7 @@
         <v>78</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>77</v>
@@ -4592,13 +4602,13 @@
         <v>77</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>193</v>
+        <v>103</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>194</v>
+        <v>104</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -4637,37 +4647,37 @@
         <v>77</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>113</v>
+        <v>77</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>114</v>
+        <v>77</v>
       </c>
       <c r="AD21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>117</v>
+        <v>77</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>77</v>
@@ -4692,10 +4702,10 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>77</v>
@@ -4707,24 +4717,22 @@
         <v>77</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>210</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>211</v>
+        <v>77</v>
       </c>
       <c r="S22" t="s" s="2">
         <v>77</v>
@@ -4754,37 +4762,37 @@
         <v>77</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="AD22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>77</v>
+        <v>115</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>212</v>
+        <v>116</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>77</v>
+        <v>117</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>191</v>
+        <v>77</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>77</v>
@@ -4798,10 +4806,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4809,7 +4817,7 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>88</v>
@@ -4824,22 +4832,24 @@
         <v>77</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>215</v>
+        <v>130</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N23" s="2"/>
+        <v>211</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>212</v>
+      </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>77</v>
+        <v>213</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>77</v>
@@ -4869,20 +4879,22 @@
         <v>77</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="AC23" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>219</v>
+        <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>88</v>
@@ -4891,13 +4903,13 @@
         <v>77</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>77</v>
@@ -4911,14 +4923,12 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="C24" t="s" s="2">
-        <v>222</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
         <v>77</v>
       </c>
@@ -4939,13 +4949,13 @@
         <v>77</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4984,19 +4994,17 @@
         <v>77</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="AC24" s="2"/>
       <c r="AD24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>77</v>
+        <v>221</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -5014,7 +5022,7 @@
         <v>77</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>77</v>
@@ -5028,12 +5036,14 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="C25" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="B25" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
         <v>77</v>
       </c>
@@ -5054,13 +5064,13 @@
         <v>77</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>102</v>
+        <v>225</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>103</v>
+        <v>218</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>104</v>
+        <v>219</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -5111,7 +5121,7 @@
         <v>77</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>105</v>
+        <v>222</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
@@ -5123,13 +5133,13 @@
         <v>77</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>106</v>
+        <v>193</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>77</v>
@@ -5150,14 +5160,14 @@
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>77</v>
@@ -5169,17 +5179,15 @@
         <v>77</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>112</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>77</v>
@@ -5216,37 +5224,37 @@
         <v>77</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>113</v>
+        <v>77</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>114</v>
+        <v>77</v>
       </c>
       <c r="AD26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>201</v>
+        <v>77</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>117</v>
+        <v>77</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>191</v>
+        <v>106</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>77</v>
@@ -5267,14 +5275,14 @@
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>77</v>
@@ -5283,19 +5291,19 @@
         <v>77</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>230</v>
+        <v>110</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>231</v>
+        <v>111</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>232</v>
+        <v>112</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -5333,37 +5341,37 @@
         <v>77</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="AD27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>77</v>
+        <v>115</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>233</v>
+        <v>116</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>234</v>
+        <v>203</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>77</v>
@@ -5377,10 +5385,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5403,16 +5411,16 @@
         <v>89</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5438,13 +5446,13 @@
         <v>77</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>150</v>
+        <v>77</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>240</v>
+        <v>77</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>241</v>
+        <v>77</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>77</v>
@@ -5462,7 +5470,7 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
@@ -5471,7 +5479,7 @@
         <v>88</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>201</v>
+        <v>236</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>100</v>
@@ -5480,7 +5488,7 @@
         <v>77</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>77</v>
@@ -5494,10 +5502,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5520,16 +5528,16 @@
         <v>89</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>245</v>
+        <v>130</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5555,13 +5563,13 @@
         <v>77</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>77</v>
+        <v>152</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>77</v>
+        <v>242</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>77</v>
+        <v>243</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>77</v>
@@ -5579,7 +5587,7 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -5588,7 +5596,7 @@
         <v>88</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>100</v>
@@ -5597,7 +5605,7 @@
         <v>77</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>250</v>
+        <v>193</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>77</v>
@@ -5606,15 +5614,15 @@
         <v>77</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>251</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5634,18 +5642,20 @@
         <v>77</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>102</v>
+        <v>247</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>103</v>
+        <v>248</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N30" s="2"/>
+        <v>249</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>250</v>
+      </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>77</v>
@@ -5694,7 +5704,7 @@
         <v>77</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>105</v>
+        <v>251</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
@@ -5703,16 +5713,16 @@
         <v>88</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>77</v>
+        <v>203</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>106</v>
+        <v>252</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>77</v>
@@ -5721,7 +5731,7 @@
         <v>77</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>77</v>
+        <v>253</v>
       </c>
     </row>
     <row r="31">
@@ -5733,14 +5743,14 @@
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>77</v>
@@ -5752,17 +5762,15 @@
         <v>77</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>112</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>77</v>
@@ -5799,37 +5807,37 @@
         <v>77</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>113</v>
+        <v>77</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>114</v>
+        <v>77</v>
       </c>
       <c r="AD31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>201</v>
+        <v>77</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>117</v>
+        <v>77</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>191</v>
+        <v>106</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>77</v>
@@ -5850,39 +5858,37 @@
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>168</v>
+        <v>109</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>258</v>
+        <v>110</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>259</v>
+        <v>111</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>261</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>77</v>
       </c>
@@ -5906,49 +5912,49 @@
         <v>77</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>262</v>
+        <v>77</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>263</v>
+        <v>77</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>264</v>
+        <v>77</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="AD32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>77</v>
+        <v>115</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>265</v>
+        <v>116</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>266</v>
+        <v>193</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>77</v>
@@ -5957,15 +5963,15 @@
         <v>77</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>191</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5973,7 +5979,7 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>88</v>
@@ -5982,25 +5988,25 @@
         <v>77</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="J33" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>269</v>
+        <v>170</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>77</v>
@@ -6025,13 +6031,13 @@
         <v>77</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>150</v>
+        <v>264</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>77</v>
@@ -6049,7 +6055,7 @@
         <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
@@ -6058,7 +6064,7 @@
         <v>88</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>100</v>
@@ -6067,7 +6073,7 @@
         <v>77</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>77</v>
@@ -6076,15 +6082,15 @@
         <v>77</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>277</v>
+        <v>193</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6092,7 +6098,7 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>88</v>
@@ -6104,19 +6110,23 @@
         <v>77</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>102</v>
+        <v>271</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>103</v>
+        <v>272</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
+        <v>273</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="O34" t="s" s="2">
+        <v>275</v>
+      </c>
       <c r="P34" t="s" s="2">
         <v>77</v>
       </c>
@@ -6140,13 +6150,13 @@
         <v>77</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>77</v>
+        <v>152</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>77</v>
+        <v>276</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>77</v>
+        <v>277</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>77</v>
@@ -6164,7 +6174,7 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>105</v>
+        <v>278</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
@@ -6173,16 +6183,16 @@
         <v>88</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>77</v>
+        <v>203</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>106</v>
+        <v>268</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>77</v>
@@ -6191,7 +6201,7 @@
         <v>77</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>77</v>
+        <v>279</v>
       </c>
     </row>
     <row r="35">
@@ -6203,14 +6213,14 @@
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>77</v>
@@ -6222,17 +6232,15 @@
         <v>77</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>112</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>77</v>
@@ -6269,37 +6277,37 @@
         <v>77</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>113</v>
+        <v>77</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>114</v>
+        <v>77</v>
       </c>
       <c r="AD35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>201</v>
+        <v>77</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>117</v>
+        <v>77</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>191</v>
+        <v>106</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>77</v>
@@ -6320,14 +6328,14 @@
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>77</v>
@@ -6336,23 +6344,21 @@
         <v>77</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>146</v>
+        <v>109</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>284</v>
+        <v>110</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>285</v>
+        <v>111</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>287</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>77</v>
       </c>
@@ -6376,29 +6382,31 @@
         <v>77</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="Y36" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="Y36" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Z36" t="s" s="2">
-        <v>288</v>
+        <v>77</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="AD36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>77</v>
+        <v>115</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>289</v>
+        <v>116</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
@@ -6407,16 +6415,16 @@
         <v>79</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>290</v>
+        <v>193</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>77</v>
@@ -6425,15 +6433,15 @@
         <v>77</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>291</v>
+        <v>77</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6441,7 +6449,7 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>88</v>
@@ -6453,19 +6461,23 @@
         <v>77</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>102</v>
+        <v>148</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>103</v>
+        <v>286</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
+        <v>287</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="O37" t="s" s="2">
+        <v>289</v>
+      </c>
       <c r="P37" t="s" s="2">
         <v>77</v>
       </c>
@@ -6489,13 +6501,11 @@
         <v>77</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y37" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="Y37" s="2"/>
       <c r="Z37" t="s" s="2">
-        <v>77</v>
+        <v>290</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>77</v>
@@ -6513,25 +6523,25 @@
         <v>77</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>105</v>
+        <v>291</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>77</v>
+        <v>203</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>106</v>
+        <v>292</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>77</v>
@@ -6540,7 +6550,7 @@
         <v>77</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>77</v>
+        <v>293</v>
       </c>
     </row>
     <row r="38">
@@ -6552,14 +6562,14 @@
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>77</v>
@@ -6571,17 +6581,15 @@
         <v>77</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>112</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>77</v>
@@ -6618,37 +6626,37 @@
         <v>77</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>113</v>
+        <v>77</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>114</v>
+        <v>77</v>
       </c>
       <c r="AD38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>201</v>
+        <v>77</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>117</v>
+        <v>77</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>191</v>
+        <v>106</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>77</v>
@@ -6669,14 +6677,14 @@
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>77</v>
@@ -6685,23 +6693,21 @@
         <v>77</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>298</v>
+        <v>110</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>299</v>
+        <v>111</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>301</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>77</v>
       </c>
@@ -6737,37 +6743,37 @@
         <v>77</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="AD39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>77</v>
+        <v>115</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>302</v>
+        <v>116</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>303</v>
+        <v>193</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>77</v>
@@ -6776,15 +6782,15 @@
         <v>77</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>304</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6807,18 +6813,20 @@
         <v>89</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>102</v>
+        <v>130</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="O40" s="2"/>
+        <v>302</v>
+      </c>
+      <c r="O40" t="s" s="2">
+        <v>303</v>
+      </c>
       <c r="P40" t="s" s="2">
         <v>77</v>
       </c>
@@ -6866,7 +6874,7 @@
         <v>77</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
@@ -6875,7 +6883,7 @@
         <v>88</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>100</v>
@@ -6884,7 +6892,7 @@
         <v>77</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>77</v>
@@ -6893,15 +6901,15 @@
         <v>77</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6909,7 +6917,7 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>88</v>
@@ -6924,20 +6932,18 @@
         <v>89</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>168</v>
+        <v>102</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>318</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>77</v>
       </c>
@@ -6985,7 +6991,7 @@
         <v>77</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
@@ -6994,7 +7000,7 @@
         <v>88</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>100</v>
@@ -7003,7 +7009,7 @@
         <v>77</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>77</v>
@@ -7012,15 +7018,15 @@
         <v>77</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>321</v>
+        <v>314</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7028,7 +7034,7 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>88</v>
@@ -7043,19 +7049,19 @@
         <v>89</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>102</v>
+        <v>170</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>77</v>
@@ -7104,7 +7110,7 @@
         <v>77</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
@@ -7113,7 +7119,7 @@
         <v>88</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>100</v>
@@ -7122,7 +7128,7 @@
         <v>77</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>77</v>
@@ -7131,15 +7137,15 @@
         <v>77</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>329</v>
+        <v>323</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7162,19 +7168,19 @@
         <v>89</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>332</v>
+        <v>102</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>335</v>
+        <v>319</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>77</v>
@@ -7223,7 +7229,7 @@
         <v>77</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
@@ -7232,7 +7238,7 @@
         <v>88</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>100</v>
@@ -7241,7 +7247,7 @@
         <v>77</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>77</v>
@@ -7250,15 +7256,15 @@
         <v>77</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>339</v>
+        <v>331</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7281,19 +7287,19 @@
         <v>89</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>102</v>
+        <v>334</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>77</v>
@@ -7342,7 +7348,7 @@
         <v>77</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -7351,7 +7357,7 @@
         <v>88</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>100</v>
@@ -7360,7 +7366,7 @@
         <v>77</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>77</v>
@@ -7369,15 +7375,15 @@
         <v>77</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>348</v>
+        <v>341</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7385,7 +7391,7 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>88</v>
@@ -7400,19 +7406,19 @@
         <v>89</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>77</v>
@@ -7425,7 +7431,7 @@
         <v>77</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>355</v>
+        <v>77</v>
       </c>
       <c r="U45" t="s" s="2">
         <v>77</v>
@@ -7461,7 +7467,7 @@
         <v>77</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
@@ -7470,7 +7476,7 @@
         <v>88</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>100</v>
@@ -7479,7 +7485,7 @@
         <v>77</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>77</v>
@@ -7488,15 +7494,15 @@
         <v>77</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>358</v>
+        <v>350</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7519,18 +7525,20 @@
         <v>89</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>102</v>
+        <v>130</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="O46" s="2"/>
+        <v>355</v>
+      </c>
+      <c r="O46" t="s" s="2">
+        <v>356</v>
+      </c>
       <c r="P46" t="s" s="2">
         <v>77</v>
       </c>
@@ -7542,7 +7550,7 @@
         <v>77</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="U46" t="s" s="2">
         <v>77</v>
@@ -7578,7 +7586,7 @@
         <v>77</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
@@ -7587,7 +7595,7 @@
         <v>88</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>100</v>
@@ -7596,7 +7604,7 @@
         <v>77</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>77</v>
@@ -7605,15 +7613,15 @@
         <v>77</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>367</v>
+        <v>360</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7621,7 +7629,7 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>88</v>
@@ -7636,16 +7644,16 @@
         <v>89</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>370</v>
+        <v>102</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7659,7 +7667,7 @@
         <v>77</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>77</v>
+        <v>366</v>
       </c>
       <c r="U47" t="s" s="2">
         <v>77</v>
@@ -7695,7 +7703,7 @@
         <v>77</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
@@ -7704,16 +7712,16 @@
         <v>88</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>375</v>
+        <v>100</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>77</v>
@@ -7722,15 +7730,15 @@
         <v>77</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>377</v>
+        <v>369</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7753,16 +7761,16 @@
         <v>89</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7812,7 +7820,7 @@
         <v>77</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
@@ -7821,16 +7829,16 @@
         <v>88</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>77</v>
@@ -7839,15 +7847,15 @@
         <v>77</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>387</v>
+        <v>379</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7870,16 +7878,16 @@
         <v>89</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>102</v>
+        <v>382</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7929,7 +7937,7 @@
         <v>77</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
@@ -7938,16 +7946,16 @@
         <v>88</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>100</v>
+        <v>387</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>191</v>
+        <v>388</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>77</v>
@@ -7956,51 +7964,49 @@
         <v>77</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>77</v>
+        <v>389</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J50" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="J50" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="K50" t="s" s="2">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>397</v>
-      </c>
+        <v>394</v>
+      </c>
+      <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>77</v>
       </c>
@@ -8048,25 +8054,25 @@
         <v>77</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>77</v>
+        <v>203</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>77</v>
@@ -8080,42 +8086,46 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>245</v>
+        <v>109</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="N51" s="2"/>
-      <c r="O51" s="2"/>
+        <v>398</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="O51" t="s" s="2">
+        <v>399</v>
+      </c>
       <c r="P51" t="s" s="2">
         <v>77</v>
       </c>
@@ -8163,7 +8173,7 @@
         <v>77</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
@@ -8175,30 +8185,30 @@
         <v>77</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>402</v>
+        <v>77</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>403</v>
+        <v>193</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>404</v>
+        <v>77</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>405</v>
+        <v>77</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>406</v>
+        <v>77</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8206,7 +8216,7 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>88</v>
@@ -8218,16 +8228,16 @@
         <v>77</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>102</v>
+        <v>247</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>103</v>
+        <v>402</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>104</v>
+        <v>403</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -8278,53 +8288,53 @@
         <v>77</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>105</v>
+        <v>401</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>77</v>
+        <v>404</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>106</v>
+        <v>405</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>77</v>
+        <v>406</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>77</v>
+        <v>407</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>77</v>
+        <v>408</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>77</v>
@@ -8336,17 +8346,15 @@
         <v>77</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>112</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="N53" s="2"/>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>77</v>
@@ -8383,37 +8391,37 @@
         <v>77</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>113</v>
+        <v>77</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>114</v>
+        <v>77</v>
       </c>
       <c r="AD53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>201</v>
+        <v>77</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>117</v>
+        <v>77</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>191</v>
+        <v>106</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>77</v>
@@ -8427,46 +8435,44 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>168</v>
+        <v>109</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>258</v>
+        <v>110</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>259</v>
+        <v>111</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>261</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>77</v>
       </c>
@@ -8490,49 +8496,49 @@
         <v>77</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>262</v>
+        <v>77</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>263</v>
+        <v>77</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>264</v>
+        <v>77</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="AD54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>77</v>
+        <v>115</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>265</v>
+        <v>116</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>266</v>
+        <v>193</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>77</v>
@@ -8541,15 +8547,15 @@
         <v>77</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>191</v>
+        <v>77</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8566,25 +8572,25 @@
         <v>77</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="J55" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>269</v>
+        <v>170</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>77</v>
@@ -8609,13 +8615,13 @@
         <v>77</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>150</v>
+        <v>264</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>77</v>
@@ -8633,7 +8639,7 @@
         <v>77</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
@@ -8642,7 +8648,7 @@
         <v>88</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>100</v>
@@ -8651,7 +8657,7 @@
         <v>77</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>77</v>
@@ -8660,15 +8666,15 @@
         <v>77</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>277</v>
+        <v>193</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8676,7 +8682,7 @@
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>88</v>
@@ -8691,19 +8697,19 @@
         <v>89</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>130</v>
+        <v>271</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>351</v>
+        <v>272</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>352</v>
+        <v>273</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>353</v>
+        <v>274</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>354</v>
+        <v>275</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>77</v>
@@ -8716,7 +8722,7 @@
         <v>77</v>
       </c>
       <c r="T56" t="s" s="2">
-        <v>355</v>
+        <v>77</v>
       </c>
       <c r="U56" t="s" s="2">
         <v>77</v>
@@ -8728,13 +8734,13 @@
         <v>77</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>77</v>
+        <v>152</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>77</v>
+        <v>276</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>77</v>
+        <v>277</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>77</v>
@@ -8752,7 +8758,7 @@
         <v>77</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>356</v>
+        <v>278</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
@@ -8761,7 +8767,7 @@
         <v>88</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>100</v>
@@ -8770,7 +8776,7 @@
         <v>77</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>357</v>
+        <v>268</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>77</v>
@@ -8779,15 +8785,15 @@
         <v>77</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>358</v>
+        <v>279</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8810,18 +8816,20 @@
         <v>89</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>102</v>
+        <v>130</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="O57" s="2"/>
+        <v>355</v>
+      </c>
+      <c r="O57" t="s" s="2">
+        <v>356</v>
+      </c>
       <c r="P57" t="s" s="2">
         <v>77</v>
       </c>
@@ -8833,7 +8841,7 @@
         <v>77</v>
       </c>
       <c r="T57" t="s" s="2">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="U57" t="s" s="2">
         <v>77</v>
@@ -8869,7 +8877,7 @@
         <v>77</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
@@ -8878,7 +8886,7 @@
         <v>88</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>100</v>
@@ -8887,7 +8895,7 @@
         <v>77</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>77</v>
@@ -8896,15 +8904,15 @@
         <v>77</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>367</v>
+        <v>360</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8912,7 +8920,7 @@
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>88</v>
@@ -8927,16 +8935,16 @@
         <v>89</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>370</v>
+        <v>102</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -8950,7 +8958,7 @@
         <v>77</v>
       </c>
       <c r="T58" t="s" s="2">
-        <v>77</v>
+        <v>366</v>
       </c>
       <c r="U58" t="s" s="2">
         <v>77</v>
@@ -8986,7 +8994,7 @@
         <v>77</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
@@ -8995,16 +9003,16 @@
         <v>88</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>375</v>
+        <v>100</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>77</v>
@@ -9013,15 +9021,15 @@
         <v>77</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>377</v>
+        <v>369</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9044,16 +9052,16 @@
         <v>89</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -9103,7 +9111,7 @@
         <v>77</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
@@ -9112,16 +9120,16 @@
         <v>88</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>77</v>
@@ -9130,15 +9138,15 @@
         <v>77</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>387</v>
+        <v>379</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9146,7 +9154,7 @@
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>88</v>
@@ -9155,22 +9163,22 @@
         <v>77</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="J60" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>168</v>
+        <v>382</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>416</v>
+        <v>383</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>417</v>
+        <v>384</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>418</v>
+        <v>385</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -9196,13 +9204,13 @@
         <v>77</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>262</v>
+        <v>77</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>419</v>
+        <v>77</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>420</v>
+        <v>77</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>77</v>
@@ -9220,42 +9228,42 @@
         <v>77</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>415</v>
+        <v>386</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>88</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>77</v>
+        <v>203</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>100</v>
+        <v>387</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>421</v>
+        <v>77</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>422</v>
+        <v>388</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>423</v>
+        <v>77</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>424</v>
+        <v>77</v>
       </c>
       <c r="AO60" t="s" s="2">
-        <v>425</v>
+        <v>389</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9263,7 +9271,7 @@
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>88</v>
@@ -9272,21 +9280,23 @@
         <v>77</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="J61" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>269</v>
+        <v>170</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="N61" s="2"/>
+        <v>419</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>420</v>
+      </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>77</v>
@@ -9311,11 +9321,13 @@
         <v>77</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="Y61" s="2"/>
+        <v>264</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>421</v>
+      </c>
       <c r="Z61" t="s" s="2">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>77</v>
@@ -9333,10 +9345,10 @@
         <v>77</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>88</v>
@@ -9348,27 +9360,27 @@
         <v>100</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>77</v>
+        <v>423</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>106</v>
+        <v>424</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>77</v>
+        <v>425</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>77</v>
+        <v>426</v>
       </c>
       <c r="AO61" t="s" s="2">
-        <v>77</v>
+        <v>427</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9379,7 +9391,7 @@
         <v>78</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>77</v>
@@ -9391,13 +9403,13 @@
         <v>89</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -9424,11 +9436,11 @@
         <v>77</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Y62" s="2"/>
       <c r="Z62" t="s" s="2">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>77</v>
@@ -9446,13 +9458,13 @@
         <v>77</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>77</v>
@@ -9464,10 +9476,10 @@
         <v>77</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>434</v>
+        <v>106</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>435</v>
+        <v>77</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>77</v>
@@ -9478,10 +9490,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9504,17 +9516,15 @@
         <v>89</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>439</v>
-      </c>
+        <v>434</v>
+      </c>
+      <c r="N63" s="2"/>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>77</v>
@@ -9539,11 +9549,11 @@
         <v>77</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Y63" s="2"/>
       <c r="Z63" t="s" s="2">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>77</v>
@@ -9561,7 +9571,7 @@
         <v>77</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
@@ -9576,13 +9586,13 @@
         <v>100</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>441</v>
+        <v>77</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>77</v>
+        <v>437</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>77</v>
@@ -9593,10 +9603,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9619,15 +9629,17 @@
         <v>89</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="N64" s="2"/>
+        <v>440</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>441</v>
+      </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>77</v>
@@ -9652,11 +9664,11 @@
         <v>77</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>262</v>
+        <v>160</v>
       </c>
       <c r="Y64" s="2"/>
       <c r="Z64" t="s" s="2">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>77</v>
@@ -9674,7 +9686,7 @@
         <v>77</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
@@ -9689,16 +9701,16 @@
         <v>100</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>77</v>
+        <v>443</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>447</v>
+        <v>77</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>77</v>
@@ -9706,10 +9718,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9720,7 +9732,7 @@
         <v>78</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>77</v>
@@ -9732,13 +9744,13 @@
         <v>89</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -9765,11 +9777,11 @@
         <v>77</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>172</v>
+        <v>264</v>
       </c>
       <c r="Y65" s="2"/>
       <c r="Z65" t="s" s="2">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>77</v>
@@ -9787,13 +9799,13 @@
         <v>77</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>77</v>
@@ -9805,24 +9817,24 @@
         <v>77</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>453</v>
+        <v>77</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>77</v>
+        <v>449</v>
       </c>
       <c r="AO65" t="s" s="2">
-        <v>454</v>
+        <v>77</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9833,7 +9845,7 @@
         <v>78</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>77</v>
@@ -9845,13 +9857,13 @@
         <v>89</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -9878,13 +9890,11 @@
         <v>77</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="Y66" t="s" s="2">
-        <v>458</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="Y66" s="2"/>
       <c r="Z66" t="s" s="2">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>77</v>
@@ -9902,13 +9912,13 @@
         <v>77</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>77</v>
@@ -9917,27 +9927,27 @@
         <v>100</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>460</v>
+        <v>77</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>77</v>
+        <v>455</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AO66" t="s" s="2">
-        <v>462</v>
+        <v>456</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9957,16 +9967,16 @@
         <v>77</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>464</v>
+        <v>271</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -9993,13 +10003,13 @@
         <v>77</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>77</v>
+        <v>174</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>77</v>
+        <v>460</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>77</v>
+        <v>461</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>77</v>
@@ -10017,7 +10027,7 @@
         <v>77</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>78</v>
@@ -10032,10 +10042,10 @@
         <v>100</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>77</v>
@@ -10044,15 +10054,15 @@
         <v>77</v>
       </c>
       <c r="AO67" t="s" s="2">
-        <v>77</v>
+        <v>464</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10063,7 +10073,7 @@
         <v>78</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>77</v>
@@ -10075,17 +10085,15 @@
         <v>77</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>473</v>
-      </c>
+        <v>468</v>
+      </c>
+      <c r="N68" s="2"/>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>77</v>
@@ -10134,13 +10142,13 @@
         <v>77</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>77</v>
@@ -10149,27 +10157,27 @@
         <v>100</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>476</v>
+        <v>77</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>447</v>
+        <v>77</v>
       </c>
       <c r="AO68" t="s" s="2">
-        <v>477</v>
+        <v>77</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10192,15 +10200,17 @@
         <v>77</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>102</v>
+        <v>472</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="N69" s="2"/>
+        <v>474</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>475</v>
+      </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>77</v>
@@ -10249,7 +10259,7 @@
         <v>77</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>78</v>
@@ -10264,27 +10274,27 @@
         <v>100</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>77</v>
+        <v>476</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>77</v>
+        <v>449</v>
       </c>
       <c r="AO69" t="s" s="2">
-        <v>483</v>
+        <v>479</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10295,7 +10305,7 @@
         <v>78</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>77</v>
@@ -10307,13 +10317,13 @@
         <v>77</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>485</v>
+        <v>102</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -10364,13 +10374,13 @@
         <v>77</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>77</v>
@@ -10379,27 +10389,27 @@
         <v>100</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>488</v>
+        <v>77</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>491</v>
+        <v>77</v>
       </c>
       <c r="AO70" t="s" s="2">
-        <v>77</v>
+        <v>485</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10407,10 +10417,10 @@
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>77</v>
@@ -10419,16 +10429,16 @@
         <v>77</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>124</v>
+        <v>487</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -10479,13 +10489,13 @@
         <v>77</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>77</v>
@@ -10494,27 +10504,27 @@
         <v>100</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="AO71" t="s" s="2">
-        <v>499</v>
+        <v>77</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10540,10 +10550,10 @@
         <v>124</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -10594,7 +10604,7 @@
         <v>77</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>78</v>
@@ -10609,27 +10619,27 @@
         <v>100</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="AO72" t="s" s="2">
-        <v>506</v>
+        <v>501</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10637,7 +10647,7 @@
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>88</v>
@@ -10649,16 +10659,16 @@
         <v>77</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>508</v>
+        <v>124</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -10709,7 +10719,7 @@
         <v>77</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>78</v>
@@ -10724,27 +10734,27 @@
         <v>100</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>77</v>
+        <v>507</v>
       </c>
       <c r="AO73" t="s" s="2">
-        <v>77</v>
+        <v>508</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10755,7 +10765,7 @@
         <v>78</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>77</v>
@@ -10767,13 +10777,13 @@
         <v>77</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -10824,13 +10834,13 @@
         <v>77</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>77</v>
@@ -10839,13 +10849,13 @@
         <v>100</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>77</v>
+        <v>497</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>77</v>
+        <v>514</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>77</v>
@@ -10856,10 +10866,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10870,7 +10880,7 @@
         <v>78</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>77</v>
@@ -10882,17 +10892,15 @@
         <v>77</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>522</v>
-      </c>
+        <v>518</v>
+      </c>
+      <c r="N75" s="2"/>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
         <v>77</v>
@@ -10941,13 +10949,13 @@
         <v>77</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>77</v>
@@ -10956,13 +10964,13 @@
         <v>100</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>523</v>
+        <v>77</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>525</v>
+        <v>77</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>77</v>
@@ -10973,10 +10981,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10999,16 +11007,16 @@
         <v>77</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>102</v>
+        <v>521</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
@@ -11058,7 +11066,7 @@
         <v>77</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>78</v>
@@ -11073,27 +11081,27 @@
         <v>100</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AO76" t="s" s="2">
-        <v>483</v>
+        <v>77</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11119,12 +11127,14 @@
         <v>102</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>535</v>
-      </c>
-      <c r="N77" s="2"/>
+        <v>530</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>531</v>
+      </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
         <v>77</v>
@@ -11173,7 +11183,7 @@
         <v>77</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>78</v>
@@ -11188,38 +11198,38 @@
         <v>100</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>77</v>
+        <v>532</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AO77" t="s" s="2">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>538</v>
+        <v>77</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>77</v>
@@ -11231,13 +11241,13 @@
         <v>77</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>539</v>
+        <v>102</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
@@ -11288,13 +11298,13 @@
         <v>77</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>77</v>
@@ -11303,35 +11313,35 @@
         <v>100</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>542</v>
+        <v>77</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>77</v>
+        <v>538</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AO78" t="s" s="2">
-        <v>77</v>
+        <v>485</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
-        <v>77</v>
+        <v>540</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>79</v>
@@ -11346,13 +11356,13 @@
         <v>77</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -11403,10 +11413,10 @@
         <v>77</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>79</v>
@@ -11415,30 +11425,30 @@
         <v>77</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>548</v>
+        <v>100</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>551</v>
+        <v>77</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AO79" t="s" s="2">
-        <v>552</v>
+        <v>77</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11446,10 +11456,10 @@
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>77</v>
@@ -11461,13 +11471,13 @@
         <v>77</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>102</v>
+        <v>547</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>103</v>
+        <v>548</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>104</v>
+        <v>549</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -11518,53 +11528,53 @@
         <v>77</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>105</v>
+        <v>546</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>77</v>
+        <v>550</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>77</v>
+        <v>551</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>106</v>
+        <v>552</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>77</v>
+        <v>553</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AO80" t="s" s="2">
-        <v>77</v>
+        <v>554</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>77</v>
@@ -11576,17 +11586,15 @@
         <v>77</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>112</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="N81" s="2"/>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
         <v>77</v>
@@ -11635,19 +11643,19 @@
         <v>77</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>117</v>
+        <v>77</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>77</v>
@@ -11667,14 +11675,14 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>556</v>
+        <v>108</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
@@ -11687,26 +11695,24 @@
         <v>77</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K82" t="s" s="2">
         <v>109</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>557</v>
+        <v>110</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>558</v>
+        <v>111</v>
       </c>
       <c r="N82" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="O82" t="s" s="2">
-        <v>397</v>
-      </c>
+      <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
         <v>77</v>
       </c>
@@ -11754,7 +11760,7 @@
         <v>77</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>559</v>
+        <v>116</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>78</v>
@@ -11772,7 +11778,7 @@
         <v>77</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>191</v>
+        <v>106</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>77</v>
@@ -11786,14 +11792,14 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
-        <v>77</v>
+        <v>558</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
@@ -11806,24 +11812,26 @@
         <v>77</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="J83" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>269</v>
+        <v>109</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>563</v>
-      </c>
-      <c r="O83" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="O83" t="s" s="2">
+        <v>399</v>
+      </c>
       <c r="P83" t="s" s="2">
         <v>77</v>
       </c>
@@ -11847,13 +11855,13 @@
         <v>77</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>150</v>
+        <v>77</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>564</v>
+        <v>77</v>
       </c>
       <c r="Z83" t="s" s="2">
-        <v>565</v>
+        <v>77</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>77</v>
@@ -11871,7 +11879,7 @@
         <v>77</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>78</v>
@@ -11883,30 +11891,30 @@
         <v>77</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>566</v>
+        <v>193</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AO83" t="s" s="2">
-        <v>567</v>
+        <v>77</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11917,7 +11925,7 @@
         <v>78</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>77</v>
@@ -11929,15 +11937,17 @@
         <v>89</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>569</v>
+        <v>271</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>571</v>
-      </c>
-      <c r="N84" s="2"/>
+        <v>564</v>
+      </c>
+      <c r="N84" t="s" s="2">
+        <v>565</v>
+      </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
         <v>77</v>
@@ -11962,13 +11972,13 @@
         <v>77</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>77</v>
+        <v>152</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>77</v>
+        <v>566</v>
       </c>
       <c r="Z84" t="s" s="2">
-        <v>77</v>
+        <v>567</v>
       </c>
       <c r="AA84" t="s" s="2">
         <v>77</v>
@@ -11986,13 +11996,13 @@
         <v>77</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>77</v>
@@ -12004,24 +12014,24 @@
         <v>77</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>573</v>
+        <v>106</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>574</v>
+        <v>77</v>
       </c>
       <c r="AO84" t="s" s="2">
-        <v>575</v>
+        <v>569</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12044,13 +12054,13 @@
         <v>89</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>168</v>
+        <v>571</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
@@ -12077,13 +12087,13 @@
         <v>77</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>262</v>
+        <v>77</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>579</v>
+        <v>77</v>
       </c>
       <c r="Z85" t="s" s="2">
-        <v>580</v>
+        <v>77</v>
       </c>
       <c r="AA85" t="s" s="2">
         <v>77</v>
@@ -12101,7 +12111,7 @@
         <v>77</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>78</v>
@@ -12119,24 +12129,24 @@
         <v>77</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>77</v>
+        <v>576</v>
       </c>
       <c r="AO85" t="s" s="2">
-        <v>77</v>
+        <v>577</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12144,7 +12154,7 @@
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G86" t="s" s="2">
         <v>88</v>
@@ -12159,13 +12169,13 @@
         <v>89</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" s="2"/>
@@ -12192,11 +12202,13 @@
         <v>77</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="Y86" s="2"/>
+        <v>264</v>
+      </c>
+      <c r="Y86" t="s" s="2">
+        <v>581</v>
+      </c>
       <c r="Z86" t="s" s="2">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="AA86" t="s" s="2">
         <v>77</v>
@@ -12214,10 +12226,10 @@
         <v>77</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH86" t="s" s="2">
         <v>88</v>
@@ -12232,24 +12244,24 @@
         <v>77</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AO86" t="s" s="2">
-        <v>589</v>
+        <v>77</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12257,7 +12269,7 @@
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G87" t="s" s="2">
         <v>88</v>
@@ -12269,16 +12281,16 @@
         <v>77</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>370</v>
+        <v>170</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -12305,13 +12317,11 @@
         <v>77</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y87" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="Y87" s="2"/>
       <c r="Z87" t="s" s="2">
-        <v>77</v>
+        <v>588</v>
       </c>
       <c r="AA87" t="s" s="2">
         <v>77</v>
@@ -12329,10 +12339,10 @@
         <v>77</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH87" t="s" s="2">
         <v>88</v>
@@ -12347,24 +12357,24 @@
         <v>77</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>106</v>
+        <v>589</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>77</v>
+        <v>590</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AO87" t="s" s="2">
-        <v>77</v>
+        <v>591</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12375,7 +12385,7 @@
         <v>78</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>77</v>
@@ -12387,17 +12397,15 @@
         <v>77</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="L88" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="M88" t="s" s="2">
         <v>594</v>
       </c>
-      <c r="M88" t="s" s="2">
-        <v>595</v>
-      </c>
-      <c r="N88" t="s" s="2">
-        <v>596</v>
-      </c>
+      <c r="N88" s="2"/>
       <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
         <v>77</v>
@@ -12446,13 +12454,13 @@
         <v>77</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>77</v>
@@ -12461,19 +12469,136 @@
         <v>100</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>495</v>
+        <v>77</v>
       </c>
       <c r="AL88" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AM88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AO88" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="B89" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="C89" s="2"/>
+      <c r="D89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E89" s="2"/>
+      <c r="F89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K89" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="L89" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="M89" t="s" s="2">
         <v>597</v>
       </c>
-      <c r="AM88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AO88" t="s" s="2">
+      <c r="N89" t="s" s="2">
         <v>598</v>
+      </c>
+      <c r="O89" s="2"/>
+      <c r="P89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q89" s="2"/>
+      <c r="R89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF89" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK89" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="AL89" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="AM89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AO89" t="s" s="2">
+        <v>600</v>
       </c>
     </row>
   </sheetData>

--- a/feature/testBR/ig/StructureDefinition-sas-sos-appointment.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-sos-appointment.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T10:02:41+00:00</t>
+    <t>2025-02-04T10:20:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-sos-appointment.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-sos-appointment.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T10:20:10+00:00</t>
+    <t>2025-02-04T12:30:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-sos-appointment.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-sos-appointment.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T12:30:23+00:00</t>
+    <t>2025-02-04T12:59:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -78,7 +78,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Profil de Slot, dérivé de FrSlot, pour le service d’agrégation de créneaux de la plateforme SAS - cas d’usage SOS Médecins</t>
+    <t>Profil de Slot, dérivé de FrSlot, pour le service d'agrégation de créneaux de la plateforme SAS [cas d'usage SOS Médecins]</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/feature/testBR/ig/StructureDefinition-sas-sos-appointment.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-sos-appointment.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T12:59:01+00:00</t>
+    <t>2025-02-04T15:23:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-sos-appointment.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-sos-appointment.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T15:23:22+00:00</t>
+    <t>2025-02-04T16:00:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-sos-appointment.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-sos-appointment.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T16:00:41+00:00</t>
+    <t>2025-02-05T17:09:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-sos-appointment.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-sos-appointment.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-05T17:09:50+00:00</t>
+    <t>2025-02-06T08:29:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-sos-appointment.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-sos-appointment.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-06T08:29:34+00:00</t>
+    <t>2025-02-06T09:04:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-sos-appointment.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-sos-appointment.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-06T09:04:57+00:00</t>
+    <t>2025-02-06T09:17:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-sos-appointment.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-sos-appointment.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-06T09:17:57+00:00</t>
+    <t>2025-02-06T09:34:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-sos-appointment.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-sos-appointment.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-06T09:34:11+00:00</t>
+    <t>2025-02-06T09:41:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-sos-appointment.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-sos-appointment.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-06T09:41:46+00:00</t>
+    <t>2025-02-06T10:00:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-sos-appointment.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-sos-appointment.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-06T10:00:10+00:00</t>
+    <t>2025-02-06T13:19:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-sos-appointment.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-sos-appointment.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-06T13:19:14+00:00</t>
+    <t>2025-02-06T13:39:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-sos-appointment.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-sos-appointment.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-06T13:39:47+00:00</t>
+    <t>2025-02-06T14:18:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-sos-appointment.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-sos-appointment.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-06T14:18:01+00:00</t>
+    <t>2025-02-06T14:37:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-sos-appointment.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-sos-appointment.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-06T14:37:01+00:00</t>
+    <t>2025-02-10T09:11:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-sos-appointment.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-sos-appointment.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-10T09:11:56+00:00</t>
+    <t>2025-02-10T10:48:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-sos-appointment.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-sos-appointment.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-10T10:48:04+00:00</t>
+    <t>2025-03-12T10:37:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-sos-appointment.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-sos-appointment.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-12T10:37:36+00:00</t>
+    <t>2025-03-12T11:02:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-sos-appointment.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-sos-appointment.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-12T11:02:50+00:00</t>
+    <t>2025-03-13T08:22:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
